--- a/project/public/example.xlsx
+++ b/project/public/example.xlsx
@@ -1,60 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8016FB5-6116-D940-80A8-5F01B1391CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6592C28-C6F9-4F5C-A1E0-71760115B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2160" windowWidth="28100" windowHeight="17360" xr2:uid="{286EF468-3BAA-4A49-A7A8-748A1EC5CE75}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>SKU名称（选填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T+ 存货名称（选填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T+ 存货编码（必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震坤行 SKU 编码（必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作（必填，0:删除，1:增加）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>震坤行SKU名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震坤行SKU编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+存货编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+存货名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作(0新增1删除)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,49 +67,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,23 +101,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -152,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,42 +133,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -227,29 +198,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -279,23 +233,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,6 +294,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -365,13 +309,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -436,68 +373,64 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B13A85D-9186-5847-9C67-B7A7B28001C0}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
